--- a/Enterprise Architect/8. Выбор технологий.xlsx
+++ b/Enterprise Architect/8. Выбор технологий.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Development/otus/Enterprise Architect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E52B8C-1F3D-084F-B1ED-453F9556A0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB2330-E45E-D846-8BAB-C27C58DBBEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17300" xr2:uid="{FDD25BD7-368B-C54D-9D09-9143107BFEA6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{FDD25BD7-368B-C54D-9D09-9143107BFEA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Анализ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +35,146 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
+  <si>
+    <t>Этап</t>
+  </si>
+  <si>
+    <t>Длинный список</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>ReactJS</t>
+  </si>
+  <si>
+    <t>React Native</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Flutter</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Dart</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Vue.JS</t>
+  </si>
+  <si>
+    <t>Angular.JS</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>Apache NiFi</t>
+  </si>
+  <si>
+    <t>Стек разработки</t>
+  </si>
+  <si>
+    <t>Хранилища данных</t>
+  </si>
+  <si>
+    <t>Инфраструктура</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>MSSQL</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Teamcity</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>ClickHouse</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Отсекающие критерии</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Не подходит под административные требования (импортозамещение)</t>
+  </si>
+  <si>
+    <t>Не подходит под требования скорости разработки и производительности ПО</t>
+  </si>
+  <si>
+    <t>Jenkinks</t>
+  </si>
+  <si>
+    <t>Отсутствует экспертиза в инструменте</t>
+  </si>
+  <si>
+    <t>Короткий список</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +182,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -62,12 +238,402 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +948,835 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E01FE72-6BEC-694C-BE76-01D19E364A72}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27">
+        <v>3</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="42"/>
+      <c r="D49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="F49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="40"/>
+      <c r="H50" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="A19:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>